--- a/lectures/9/descriptive.xlsx
+++ b/lectures/9/descriptive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_F21\lectures\9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_S23_2\lectures\9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94D61282-6947-4F56-A57D-85389E9A1D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48135A8F-74B5-47D2-98F5-B6EE74139BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="1935" windowWidth="16200" windowHeight="9360" activeTab="1" xr2:uid="{5A1892A4-51FD-4FF6-B8A1-0EDCB78EFF57}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A1892A4-51FD-4FF6-B8A1-0EDCB78EFF57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2205,7 +2205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2215,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771FC9F8-F4B7-4F22-BEDD-02E42B3CDFA1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,11 +2292,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B2EA41-FBD6-4F2C-8E33-5BBD4169A0E3}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
